--- a/results/tables/lit_review_covid19.xlsx
+++ b/results/tables/lit_review_covid19.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josephh\Documents\GitHub\hegsrr\RPr-Chakraborty2020\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E80D58A-A042-9648-B683-4B8621EE16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
+    <workbookView xWindow="765" yWindow="495" windowWidth="28035" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -508,24 +507,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DD914-802A-2649-AFF7-4118777A11DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="128" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -545,7 +544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -553,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -561,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -577,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -585,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -593,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -604,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -612,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -623,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -631,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -639,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -647,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -655,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -663,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -671,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -679,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -687,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -695,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -703,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -711,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -719,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -727,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -735,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -743,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -751,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -759,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -767,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -775,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -783,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -791,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -799,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -818,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <f>SUM(B2:B34)</f>
         <v>7</v>

--- a/results/tables/lit_review_covid19.xlsx
+++ b/results/tables/lit_review_covid19.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josephh\Documents\GitHub\hegsrr\RPr-Chakraborty2020\results\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyz/Documents/GitHub/HEGSRR/RPr-Chakraborty-2021/results/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1FBAE-296F-BE49-8305-2C9B2A1A6DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="495" windowWidth="28035" windowHeight="16020"/>
+    <workbookView xWindow="800" yWindow="880" windowWidth="35560" windowHeight="19600" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Raw Data</t>
   </si>
@@ -109,9 +110,6 @@
   </si>
   <si>
     <t>Impact of COVID-19 on services for people with disabilities and chronic health conditions</t>
-  </si>
-  <si>
-    <t>Brief report: The impact of the COVID-19 pandemic on health behaviors in adolescents with Autism Spectrum Disorder</t>
   </si>
   <si>
     <t>A cross-sectional analysis of trust of information and COVID-19 preventative practices among people with disabilities</t>
@@ -153,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -507,24 +505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DD914-802A-2649-AFF7-4118777A11DA}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="128" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -541,10 +539,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -552,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -560,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -568,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -576,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -584,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -592,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -603,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -611,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -622,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -630,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -638,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -646,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -654,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -662,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -670,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -678,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -686,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -694,63 +692,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -758,23 +756,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -782,61 +780,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>SUM(B2:B34)</f>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>SUM(B2:B33)</f>
         <v>7</v>
       </c>
-      <c r="C35">
-        <f t="shared" ref="C35:F35" si="0">SUM(C2:C34)</f>
-        <v>8</v>
-      </c>
-      <c r="D35">
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="0">SUM(C2:C33)</f>
+        <v>10</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/lit_review_covid19.xlsx
+++ b/results/tables/lit_review_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyz/Documents/GitHub/HEGSRR/RPr-Chakraborty-2021/results/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1FBAE-296F-BE49-8305-2C9B2A1A6DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394B2A0-D6ED-AE4C-8A82-7CF376860448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="880" windowWidth="35560" windowHeight="19600" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28800" windowHeight="19600" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Raw Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t xml:space="preserve">Processed data or intermediaries </t>
   </si>
   <si>
-    <t xml:space="preserve">Supplemetary materials </t>
-  </si>
-  <si>
     <t>Perceived impacts of COVID-19 on wellbeing among US working-age adults with ADL difficulty</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>COVID-19 positivity rates, hospitalizations and mortality of adults with and without intellectual and developmental disabilities in Ontario, Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">Point to data base </t>
-  </si>
-  <si>
     <t>Health and healthcare for people with disabilities in the UK during the COVID-19 pandemic</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>COVID-19 vaccine perceptions in New York State's intellectual and developmental disabilities community</t>
   </si>
   <si>
-    <t xml:space="preserve"> Articles with open access data and materials </t>
-  </si>
-  <si>
     <t>Impact of COVID-19 on people with physical disabilities: A rapid review</t>
   </si>
   <si>
@@ -145,7 +133,118 @@
     <t>Health disparities among Social Security Disability Insurance and Supplemental Security Income beneficiaries who participate in federal rental housing assistance programs</t>
   </si>
   <si>
-    <t>not free access</t>
+    <t>Author/Year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pendergrast, C. B., &amp; Monnat, S. M. (2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other supplemetary materials </t>
+  </si>
+  <si>
+    <t>Raw data</t>
+  </si>
+  <si>
+    <t>Instructions on data access</t>
+  </si>
+  <si>
+    <t>Friedman, C. (2022)</t>
+  </si>
+  <si>
+    <t>Bova, S. M., Basso, M., Bianchi, M. F., Savaré, L., Ferrara, G., Mura, E., ... &amp; Zanette, M. (2021)</t>
+  </si>
+  <si>
+    <t>Nagarajan, N., Varadaraj, V., Chanes-Mora, P., Rosenblum, L. P., &amp; Swenor, B. K. (2022)</t>
+  </si>
+  <si>
+    <t>Lai, B., Wen, H., Sinha, T., Davis, D., Swanson-Kimani, E., Wozow, C., ... &amp; Rimmer, J. H. (2022)</t>
+  </si>
+  <si>
+    <t>Allison, K. M., &amp; Levac, D. E. (2022)</t>
+  </si>
+  <si>
+    <t>Lunsky, Y., Durbin, A., Balogh, R., Lin, E., Palma, L., &amp; Plumptre, L. (2022).</t>
+  </si>
+  <si>
+    <t>Kavanagh, A., Hatton, C., Stancliffe, R. J., Aitken, Z., King, T., Hastings, R., ... &amp; Emerson, E. (2022)</t>
+  </si>
+  <si>
+    <t>Assi, L., Deal, J. A., Samuel, L., Reed, N. S., Ehrlich, J. R., &amp; Swenor, B. K. (2022).</t>
+  </si>
+  <si>
+    <t>Pettinicchio, D., Maroto, M., Chai, L., &amp; Lukk, M. (2021).</t>
+  </si>
+  <si>
+    <t>Okoro, C. A., Strine, T. W., McKnight-Eily, L., Verlenden, J., &amp; Hollis, N. D. (2021).</t>
+  </si>
+  <si>
+    <t>Bentzen, M., Brurok, B., Roeleveld, K., Hoff, M., Jahnsen, R., Wouda, M. F., &amp; Baumgart, J. K. (2021). </t>
+  </si>
+  <si>
+    <t>Summaka, M., Zein, H., Naim, I., &amp; Fneish, S. (2021).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epstein, S., Campanile, J., Cerilli, C., Gajwani, P., Varadaraj, V., &amp; Swenor, B. K. (2021). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na, L., &amp; Yang, L. (2022). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brucker, D. L., Stott, G., &amp; Phillips, K. G. (2021). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iadarola, S., Siegel, J. F., Gao, Q., McGrath, K., &amp; Bonuck, K. A. (2022). </t>
+  </si>
+  <si>
+    <t>Lebrasseur, A., Fortin-Bédard, N., Lettre, J., Bussières, E. L., Best, K., Boucher, N., ... &amp; Routhier, F. (2021).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theis, N., Campbell, N., De Leeuw, J., Owen, M., &amp; Schenke, K. C. (2021). </t>
+  </si>
+  <si>
+    <t>Schwartz, A. E., Munsell, E. G., Schmidt, E. K., Colón-Semenza, C., Carolan, K., &amp; Gassner, D. L. (2021).</t>
+  </si>
+  <si>
+    <t>Brucker, D. L., Stott, G., &amp; Phillips, K. G. (2021).</t>
+  </si>
+  <si>
+    <t>Ipsen, C., Myers, A., &amp; Sage, R. (2021).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selick, A., Bobbette, N., Lunsky, Y., Hamdani, Y., Rayner, J., &amp; Durbin, J. (2021). </t>
+  </si>
+  <si>
+    <t>Gagnon, M. A., Batcho, C. S., &amp; Best, K. L. (2022)</t>
+  </si>
+  <si>
+    <t>Remijn, L., Kalsbeek, C. J., Platteel, V., &amp; Kindermann, A. (2022).</t>
+  </si>
+  <si>
+    <t>Chardavoyne, P. C., Henry, A. M., &amp; Forté, K. S. (2022)</t>
+  </si>
+  <si>
+    <t>Noten, S., Rodby-Bousquet, E., Limsakul, C., Tipchatyotin, S., Visser, F., Grootoonk, A., ... &amp; de Groot, V. (2022)</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Lankford, C. M., Paez, K., Yang, M., &amp; Lin, A. (2022).</t>
+  </si>
+  <si>
+    <t>McCoy, A. R., Polsunas, P., Borecky, K., Brane, L., Day, J., Ferber, G., ... &amp; Davis, W. A. (2022).</t>
+  </si>
+  <si>
+    <t>Jackson, H., Young, N. A., &amp; Taylor, D. (2021).</t>
+  </si>
+  <si>
+    <t>Emerson, E., Fortune, N., Llewellyn, G., &amp; Stancliffe, R. (2021).</t>
+  </si>
+  <si>
+    <t>Brucker, D. L., &amp; Garrison, V. H. (2021).</t>
   </si>
 </sst>
 </file>
@@ -506,327 +605,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DD914-802A-2649-AFF7-4118777A11DA}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="128" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="132.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="s">
+        <v>68</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <f>SUM(B2:B33)</f>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C2:C33)</f>
         <v>7</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:F34" si="0">SUM(C2:C33)</f>
+      <c r="D34">
+        <f t="shared" ref="D34:F34" si="0">SUM(D2:D33)</f>
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/lit_review_covid19.xlsx
+++ b/results/tables/lit_review_covid19.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyz/Documents/GitHub/HEGSRR/RPr-Chakraborty-2021/results/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394B2A0-D6ED-AE4C-8A82-7CF376860448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC210D25-3C8F-9E48-9FEB-ABDF900913D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28800" windowHeight="19600" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{F7D3AAE0-CE18-5A4C-9029-858F6DF03216}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -35,216 +35,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
-  <si>
-    <t xml:space="preserve">Processed data or intermediaries </t>
-  </si>
-  <si>
-    <t>Perceived impacts of COVID-19 on wellbeing among US working-age adults with ADL difficulty</t>
-  </si>
-  <si>
-    <t>Financial Hardship Experienced By People with Disabilities During the COVID-19 Pandemic</t>
-  </si>
-  <si>
-    <t>Impact of COVID-19 lockdown in children with neurological disorders in Italy</t>
-  </si>
-  <si>
-    <t>Concerns on healthcare access, utilization, and safety due to COVID-19 among American adults with vision loss</t>
-  </si>
-  <si>
-    <t>The impact of COVID-19 on the lifestyles of adolescents with cerebral palsy in the Southeast United States</t>
-  </si>
-  <si>
-    <t>Impact of the COVID-19 pandemic on therapy service delivery and functioning for school-aged children with disabilities in the United States</t>
-  </si>
-  <si>
-    <t>Access to food and health care during the COVID-19 pandemic by disability status in the United States</t>
-  </si>
-  <si>
-    <t>COVID-19 positivity rates, hospitalizations and mortality of adults with and without intellectual and developmental disabilities in Ontario, Canada</t>
-  </si>
-  <si>
-    <t>Health and healthcare for people with disabilities in the UK during the COVID-19 pandemic</t>
-  </si>
-  <si>
-    <t>Findings from an online survey on the mental health effects of COVID-19 on Canadians with disabilities and chronic health conditions</t>
-  </si>
-  <si>
-    <t>Indicators of poor mental health and stressors during the COVID-19 pandemic, by disability status: A cross-sectional analysis</t>
-  </si>
-  <si>
-    <t>Changes in physical activity and basic psychological needs related to mental health among people with physical disability during the COVID-19 pandemic in Norway</t>
-  </si>
-  <si>
-    <t>Assessing the psychological impact of COVID-19 outbreak and its related factors on Lebanese individuals with physical disabilities</t>
-  </si>
-  <si>
-    <t>New obstacles and widening gaps: A qualitative study of the effects of the COVID-19 pandemic on U.S. adults with disabilities</t>
-  </si>
-  <si>
-    <t>Psychological and behavioral responses during the COVID-19 pandemic among individuals with mobility and/or self-care disabilities</t>
-  </si>
-  <si>
-    <t>Food sufficiency and the utilization of free food resources for working-age Americans with disabilities during the COVID-19 pandemic</t>
-  </si>
-  <si>
-    <t>COVID-19 vaccine perceptions in New York State's intellectual and developmental disabilities community</t>
-  </si>
-  <si>
-    <t>Impact of COVID-19 on people with physical disabilities: A rapid review</t>
-  </si>
-  <si>
-    <t>The effects of COVID-19 restrictions on physical activity and mental health of children and young adults with physical and/or intellectual disabilities</t>
-  </si>
-  <si>
-    <t>Impact of COVID-19 on services for people with disabilities and chronic health conditions</t>
-  </si>
-  <si>
-    <t>A cross-sectional analysis of trust of information and COVID-19 preventative practices among people with disabilities</t>
-  </si>
-  <si>
-    <t>Virtual health care for adult patients with intellectual and developmental disabilities: A scoping review</t>
-  </si>
-  <si>
-    <t>A description of physical activity behaviors, barriers, and motivators in stroke survivors in Quebec</t>
-  </si>
-  <si>
-    <t>How to support parents and healthcare professionals in the decision-making process of tube feeding in children?</t>
-  </si>
-  <si>
-    <t>Understanding medical students' attitudes towards and experiences with persons with disabilities and disability education</t>
-  </si>
-  <si>
-    <t>An international clinical perspective on functioning and disability in adults with cerebral palsy</t>
-  </si>
-  <si>
-    <t>Adapting the Current Opioid Misuse Measure (COMM) for people with chronic pain and disability due to arthritis: The development of the COMM 11-PWDA</t>
-  </si>
-  <si>
-    <t>Reaching for equitable care: High levels of disability-related knowledge and cultural competence only get us so far</t>
-  </si>
-  <si>
-    <t>Beyond question wording: How survey design and administration shape estimates of disability</t>
-  </si>
-  <si>
-    <t>Loneliness, social support, social isolation and wellbeing among working age adults with and without disability: Cross-sectional study</t>
-  </si>
-  <si>
-    <t>Health disparities among Social Security Disability Insurance and Supplemental Security Income beneficiaries who participate in federal rental housing assistance programs</t>
-  </si>
-  <si>
-    <t>Author/Year</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pendergrast, C. B., &amp; Monnat, S. M. (2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other supplemetary materials </t>
-  </si>
-  <si>
-    <t>Raw data</t>
-  </si>
-  <si>
-    <t>Instructions on data access</t>
-  </si>
-  <si>
-    <t>Friedman, C. (2022)</t>
-  </si>
-  <si>
-    <t>Bova, S. M., Basso, M., Bianchi, M. F., Savaré, L., Ferrara, G., Mura, E., ... &amp; Zanette, M. (2021)</t>
-  </si>
-  <si>
-    <t>Nagarajan, N., Varadaraj, V., Chanes-Mora, P., Rosenblum, L. P., &amp; Swenor, B. K. (2022)</t>
-  </si>
-  <si>
-    <t>Lai, B., Wen, H., Sinha, T., Davis, D., Swanson-Kimani, E., Wozow, C., ... &amp; Rimmer, J. H. (2022)</t>
-  </si>
-  <si>
-    <t>Allison, K. M., &amp; Levac, D. E. (2022)</t>
-  </si>
-  <si>
-    <t>Lunsky, Y., Durbin, A., Balogh, R., Lin, E., Palma, L., &amp; Plumptre, L. (2022).</t>
-  </si>
-  <si>
-    <t>Kavanagh, A., Hatton, C., Stancliffe, R. J., Aitken, Z., King, T., Hastings, R., ... &amp; Emerson, E. (2022)</t>
-  </si>
-  <si>
-    <t>Assi, L., Deal, J. A., Samuel, L., Reed, N. S., Ehrlich, J. R., &amp; Swenor, B. K. (2022).</t>
-  </si>
-  <si>
-    <t>Pettinicchio, D., Maroto, M., Chai, L., &amp; Lukk, M. (2021).</t>
-  </si>
-  <si>
-    <t>Okoro, C. A., Strine, T. W., McKnight-Eily, L., Verlenden, J., &amp; Hollis, N. D. (2021).</t>
-  </si>
-  <si>
-    <t>Bentzen, M., Brurok, B., Roeleveld, K., Hoff, M., Jahnsen, R., Wouda, M. F., &amp; Baumgart, J. K. (2021). </t>
-  </si>
-  <si>
-    <t>Summaka, M., Zein, H., Naim, I., &amp; Fneish, S. (2021).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epstein, S., Campanile, J., Cerilli, C., Gajwani, P., Varadaraj, V., &amp; Swenor, B. K. (2021). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na, L., &amp; Yang, L. (2022). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brucker, D. L., Stott, G., &amp; Phillips, K. G. (2021). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iadarola, S., Siegel, J. F., Gao, Q., McGrath, K., &amp; Bonuck, K. A. (2022). </t>
-  </si>
-  <si>
-    <t>Lebrasseur, A., Fortin-Bédard, N., Lettre, J., Bussières, E. L., Best, K., Boucher, N., ... &amp; Routhier, F. (2021).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theis, N., Campbell, N., De Leeuw, J., Owen, M., &amp; Schenke, K. C. (2021). </t>
-  </si>
-  <si>
-    <t>Schwartz, A. E., Munsell, E. G., Schmidt, E. K., Colón-Semenza, C., Carolan, K., &amp; Gassner, D. L. (2021).</t>
-  </si>
-  <si>
-    <t>Brucker, D. L., Stott, G., &amp; Phillips, K. G. (2021).</t>
-  </si>
-  <si>
-    <t>Ipsen, C., Myers, A., &amp; Sage, R. (2021).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selick, A., Bobbette, N., Lunsky, Y., Hamdani, Y., Rayner, J., &amp; Durbin, J. (2021). </t>
-  </si>
-  <si>
-    <t>Gagnon, M. A., Batcho, C. S., &amp; Best, K. L. (2022)</t>
-  </si>
-  <si>
-    <t>Remijn, L., Kalsbeek, C. J., Platteel, V., &amp; Kindermann, A. (2022).</t>
-  </si>
-  <si>
-    <t>Chardavoyne, P. C., Henry, A. M., &amp; Forté, K. S. (2022)</t>
-  </si>
-  <si>
-    <t>Noten, S., Rodby-Bousquet, E., Limsakul, C., Tipchatyotin, S., Visser, F., Grootoonk, A., ... &amp; de Groot, V. (2022)</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Lankford, C. M., Paez, K., Yang, M., &amp; Lin, A. (2022).</t>
-  </si>
-  <si>
-    <t>McCoy, A. R., Polsunas, P., Borecky, K., Brane, L., Day, J., Ferber, G., ... &amp; Davis, W. A. (2022).</t>
-  </si>
-  <si>
-    <t>Jackson, H., Young, N. A., &amp; Taylor, D. (2021).</t>
-  </si>
-  <si>
-    <t>Emerson, E., Fortune, N., Llewellyn, G., &amp; Stancliffe, R. (2021).</t>
-  </si>
-  <si>
-    <t>Brucker, D. L., &amp; Garrison, V. H. (2021).</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+  <si>
+    <t>Allison KM, Levac DE</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annaswamy TM, Verduzco-Gutierrez M, Frieden L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bates LC, Conners R, Zieff G, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bentzen M, Brurok B, Roeleveld K, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bova SM, Basso M, Bianchi MF, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyle CA, Fox MH, Havercamp SM, Zubler J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brucker DL, Garrison VH. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brucker DL, Stott G, Phillips KG. </t>
+  </si>
+  <si>
+    <t>Caldwell J, Heyman M, Atkins M, Ho S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chardavoyne PC, Henry AM, Sprow Forté K. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho M, Kim KM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choi JW, Han E, Lee SG, Shin J, Kim TH. </t>
+  </si>
+  <si>
+    <t>Copersino ML, Slayter E, McHugh RK, et al.</t>
+  </si>
+  <si>
+    <t>Assi L, Deal JA, Samuel L, Reed NS, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desroches ML, Ailey S, Fisher K, Stych J. </t>
+  </si>
+  <si>
+    <t>Emerson E, Aitken Z, King T, Arciuli J, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerson E, Fortune N, Llewellyn G, Stancliffe R. </t>
+  </si>
+  <si>
+    <t>Epstein S, Campanile J, Cerilli C, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedman C. </t>
+  </si>
+  <si>
+    <t>2021a</t>
+  </si>
+  <si>
+    <t>2021b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagnon M-A, Batcho CS, Best KL. </t>
+  </si>
+  <si>
+    <t>Garcia JM, Lawrence S, Brazendale K, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gignac MAM, Shahidi F V, Jetha A, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartley SL, Fleming V, Piro-Gambetti B, et al. </t>
+  </si>
+  <si>
+    <t>Hochman Y, Shpigelman C-N, Holler R, Werner S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollis ND, Thierry JM, Garcia-Williams AG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holm ME, Sainio P, Parikka S, Koskinen S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iadarola S, Siegel JF, Gao Q, McGrath K, Bonuck KA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipsen C, Hall JP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipsen C, Myers A, Sage R. </t>
+  </si>
+  <si>
+    <t>Ipsen C, Repke M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson H, Young NAE, Taylor D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo G, Habib D, Varadaraj V, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karpur A, Vasudevan V, Frazier TW, Shih AJ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavanagh A, Dickinson H, Carey G, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavanagh A, Hatton C, Stancliffe RJ, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim MA, Yi J, Sung J, Hwang S, Howey W, Jung SM. </t>
+  </si>
+  <si>
+    <t>Koon LM, Greiman L, Schulz JA, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krahn GL, Robinson A, Murray AJ, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lai B, Wen H, Sinha T, et al. </t>
+  </si>
+  <si>
+    <t>Landes SD, Turk MA, Ervin DA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landes SD, Turk MA, Formica MK, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landes SD, Turk MA, Wong AWWA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebrasseur A, Fortin-Bédard N, Lettre J, et al. </t>
+  </si>
+  <si>
+    <t>Ledingham E, Adams RS, Heaphy D, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee J, Healy S, Haegele JA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsay S, Ahmed H, Apostolopoulos D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunsky Y, Bobbette N, Selick A, Jiwa MI. </t>
+  </si>
+  <si>
+    <t>Lunsky Y, Durbin A, Balogh R, et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallery Lankford C, Paez K, Yang M, Lin A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCoy AR, Polsunas P, Borecky K, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meleo-Erwin Z, Kollia B, Fera J, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan KA, Heeb R, Flynn A, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myers A, Ipsen C, Lissau A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na L, Yang L. </t>
+  </si>
+  <si>
+    <t>Nagarajan N, Varadaraj V, Chanes-Mora P, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noten S, Rodby-Bousquet E, Limsakul C, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okoro CA, Strine TW, McKnight-Eily L, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peacock G, Ryerson AB, Koppaka R, Tschida J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendergrast CB, Monnat SM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pettinicchio D, Maroto M, Chai L, Lukk M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravesloot C, Myers A, Greiman L, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reif S, Mitra M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remijn L, Kalsbeek CJC, Platteel V, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiz-Lozano RE, de la Rosa-Pacheco S, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwartz AE, Munsell EGS, Schmidt EK, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selick A, Bobbette N, Lunsky Y, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaw KA, Bertrand L, Deprez D, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subach R, Sullivan J. </t>
+  </si>
+  <si>
+    <t>Summaka M, Zein H, Naim I, Fneish S</t>
+  </si>
+  <si>
+    <t>Theis N, Campbell N, De Leeuw J, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turk MA, Landes SD, Formica MK, Goss KD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warner MB, Mason BS, Goosey-Tolfrey VL, Webborn N. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xie Z, Tanner R, Striley CL, Marlow NM. </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentages</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Processed Data</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Data Access Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Supplementary Materials </t>
   </si>
 </sst>
 </file>
@@ -288,9 +330,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,75 +650,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DD914-802A-2649-AFF7-4118777A11DA}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD10FE-8BB4-4B4C-989D-C97D1EC5D6E2}">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="132.33203125" customWidth="1"/>
-    <col min="2" max="2" width="80.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2022</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -680,21 +761,45 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="B5" s="2">
+        <v>2022</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="B6" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -702,71 +807,137 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="B7" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="B8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
+      <c r="B9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="B10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
+      <c r="B11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
+      <c r="B12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
@@ -774,255 +945,1523 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
+      <c r="B13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
+      <c r="B14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
+      <c r="B15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2022</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B56" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B58" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B59" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B61" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B62" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B63" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B65" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B66" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B67" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B68" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <f>SUM(C2:C33)</f>
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D34:F34" si="0">SUM(D2:D33)</f>
+      <c r="B69" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
+        <f>SUM(C2:C76)</f>
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" ref="D77:G77" si="0">SUM(D2:D76)</f>
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E77" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>3</v>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="1">
+        <f>C77/75*100</f>
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <f>D77/75*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ref="D78:G78" si="1">E77/75*100</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="1"/>
+        <v>21.333333333333336</v>
       </c>
     </row>
   </sheetData>
